--- a/plan.xlsx
+++ b/plan.xlsx
@@ -47,13 +47,13 @@
     <t>D</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>Sampling</t>
   </si>
   <si>
     <t>failed to interpret 0 as a natural number</t>
+  </si>
+  <si>
+    <t>K</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -408,7 +408,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -544,7 +544,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -563,7 +563,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
